--- a/content/drafts/entitats/Terçons.xlsx
+++ b/content/drafts/entitats/Terçons.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\armando.valentin\Generalitat de Catalunya\Franco Castanys, Llorenç - 2019 - Dades de referència\__C6\01.CATaleg\10.Modelatge_OIAD\12.Terçons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/12.Terçons/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0F99C2A1E443241F10F30A1B47B39DFE902B3966" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07B72F4C-B227-4EEE-AC80-4F25E60FC036}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terçons" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -35,9 +30,6 @@
     <t>Codi</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom de la taula: </t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -85,11 +77,14 @@
   <si>
     <t>Lairissa/Irissa</t>
   </si>
+  <si>
+    <t xml:space="preserve">Nom entitat: </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +206,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Hoja2" xfId="1"/>
+    <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -315,10 +310,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="Codi" dataDxfId="1"/>
-    <tableColumn id="2" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,103 +581,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -699,24 +692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -848,31 +823,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -888,4 +857,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>